--- a/excel/Historial Leads.xlsx
+++ b/excel/Historial Leads.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0112944A-DE71-4988-A4F3-B5768F9D0ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA182FD-4906-498F-A381-F27445FF64F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-1-2024" sheetId="1" r:id="rId1"/>
     <sheet name="22-1-2024" sheetId="2" r:id="rId2"/>
+    <sheet name="23-1-2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="358">
   <si>
     <t>name</t>
   </si>
@@ -1222,6 +1223,369 @@
   </si>
   <si>
     <t>A PARTIR DE ACA EMPECE CON MODELO GPT 4-1106-PREVIEW</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>23/1/2024, 9:25:39 - ..: Hola buenas
+23/1/2024, 9:25:39 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+23/1/2024, 9:26:03 - ..: Te quería preguntar en la forma de pagar de cuantas cuotas sería ?
+23/1/2024, 9:26:03 - MegaBot: La cantidad de cuotas depende del acuerdo con la financiera o banco. Necesitaría saber qué modelo te interesa para proporcionarte más detalles. ¿Cuál es el modelo y tus datos de contacto?
+23/1/2024, 18:21:30 - ..: Partir de los 21 se puede
+23/1/2024, 18:21:30 - MegaBot: Basado en la lista de precios, el modelo "STRATO 150 EURO" tiene un precio al contado de $1,913,100. Te puedo ayudar con más detalles si estás interesado en este modelo o algún otro. Además, ¿podrías proporcionar tus datos de contacto, ubicación y el método de pago preferido?
+23/1/2024, 18:21:51 - ..: Dale gracias entonces, tengo 19 recien
+23/1/2024, 18:21:51 - MegaBot: ¡De nada! Si necesitas más información sobre las opciones de financiamiento o sobre algún modelo en específico, no dudes en contactarme. ¡Que tengas un buen día!
+23/1/2024, 18:21:58 - ..: Pero gracias por la info
+23/1/2024, 18:21:58 - MegaBot: ¡De nada! Estoy aquí para ayudarte en lo que necesites. ¡Que tengas un excelente día!</t>
+  </si>
+  <si>
+    <t>659edfaf6df1c90008e1d5bf</t>
+  </si>
+  <si>
+    <t>Eliane Romero</t>
+  </si>
+  <si>
+    <t>23/1/2024, 9:31:44 - Eliane Romero: Hola buen día, quería saber a qué precio final tiene la zuzuqui Ax
+23/1/2024, 9:31:44 - MegaBot: ¡Hola Eliane Romero! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+El precio final de la motocicleta modelo AX100, al contado y sin patentamiento, es de 1,303,827.05 pesos. ¿Hay algo más en lo que pueda asistirte?</t>
+  </si>
+  <si>
+    <t>65a5fbc0838604000827518a</t>
+  </si>
+  <si>
+    <t>Maxjet S.a</t>
+  </si>
+  <si>
+    <t>23/1/2024, 10:20:22 - Maxjet S.a: 100% quiero ver como queda
+23/1/2024, 10:20:23 - MegaBot: ¡Hola Maxjet S.a! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65a8730968621800089a0132</t>
+  </si>
+  <si>
+    <t>👀</t>
+  </si>
+  <si>
+    <t>23/1/2024, 11:16:28 - 👀: Hola buen día para hablar con un representante por favor gracias
+23/1/2024, 11:16:28 - MegaBot: ¡Hola 👀! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+23/1/2024, 18:20:38 - 👀: Hola si
+23/1/2024, 18:20:38 - MegaBot: Para poder ayudarte mejor, ¿podrías indicarme qué modelo de moto te interesa, tu ubicación y cómo te gustaría efectuar el pago?
+23/1/2024, 18:21:02 - 👀: Quería saber por Motomel 110cc
+23/1/2024, 18:21:02 - MegaBot: Para la Moto Motomel 110cc, el precio de contado sin patentamiento es de $936116.  Por favor, confirma tu ubicación y tu método de pago preferido para poder asesorarte mejor【16†fuente】.</t>
+  </si>
+  <si>
+    <t>65afca2f90c6a900088ebb4c</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>23/1/2024, 12:19:42 - Ale: ¡Hola! Quiero más información.
+23/1/2024, 12:19:43 - MegaBot: ¡Hola Ale! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65afd8fb9aa93b0008d54df2</t>
+  </si>
+  <si>
+    <t>💪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/1/2024, 15:21:27 - 💪: González catán  dragones 3544
+23/1/2024, 15:21:27 - MegaBot: ¡Hola 💪! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesito que me indiques qué modelo de moto estás buscando y si tienes alguna preferencia en cuanto a la forma de pago. Además, ¿podrías confirmarme si te encuentras en la localidad de González Catán? </t>
+  </si>
+  <si>
+    <t>65a958086dd3cb000657e1cf</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>23/1/2024, 15:33:30 - Lorena: ¡Hola! Podrías darme más información de...
+23/1/2024, 15:33:30 - MegaBot: ¡Hola Lorena! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de donde sos, y cómo querés pagar.
+Además, tengo una lista de precios actualizada para que puedas ver las opciones disponibles. ¿En qué más te puedo ayudar?
+23/1/2024, 18:24:55 - Lorena: La suzuki
+23/1/2024, 18:24:55 - MegaBot: Lorena, la Suzuki SKUA 250 BASE NEW tiene un precio al contado sin patentamiento de $2,194,895.00. ¿Dónde te encuentras y cómo prefieres pagar?</t>
+  </si>
+  <si>
+    <t>65b00666cea2f000085a4b98</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>23/1/2024, 15:42:41 - Hugo: ¡Hola! Quiero más información.
+23/1/2024, 15:42:41 - MegaBot: ¡Hola Hugo! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder atenderte más rápido, necesitaría que me brindes la siguiente información:
+1. ¿Qué moto estás buscando?
+2. ¿De dónde eres?
+3. ¿Cómo te gustaría pagar?【9†fuente】
+23/1/2024, 18:23:29 - Hugo: Tiene concesionaria en Posadas misiones
+23/1/2024, 18:23:29 - MegaBot: ¡Hugo! Megamoto tiene sucursales en Merlo y CABA, pero no en Posadas, Misiones. ¿Hay algo más en lo que pueda ayudarte?【8†fuente】
+23/1/2024, 18:23:36 - Hugo: ??
+23/1/2024, 18:23:36 - MegaBot: Lo siento, parece que Megamoto no tiene una sucursal en Posadas, Misiones. ¿Hay algo más en lo que pueda ayudarte?</t>
+  </si>
+  <si>
+    <t>65b0088baf8d190008404eb8</t>
+  </si>
+  <si>
+    <t>Ruben😘</t>
+  </si>
+  <si>
+    <t>23/1/2024, 16:31:22 - Ruben😘: ¡Hola! Quiero más información.
+23/1/2024, 16:31:22 - MegaBot: ¡Hola Ruben😘! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y ofrece servicios de postventa. Puedes encontrarlos en Merlo y en CABA, con diferentes horarios de atención. Los métodos de pago incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, con la posibilidad de financiación en cuotas【9†source】.
+En cuanto a los modelos de motos y sus precios de contado sin patentamiento, tengo un archivo con esa información que puedo revisar para ti. ¿Te interesa obtener la lista de precios de alguna moto en particular?</t>
+  </si>
+  <si>
+    <t>65b013f9bff5550008cfce8d</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>23/1/2024, 16:31:44 - Oscar: ¡Hola! Quiero más información.
+23/1/2024, 16:31:44 - MegaBot: La información que me enviaste es muy útil. Según la base de conocimiento de Megamoto, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. También se puede combinar diferentes métodos de pago. En cuanto a la financiación, se puede pagar hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Para saber si te otorgan crédito, será necesario proporcionar el número de documento【9†fuente】.
+También tengo la lista de precios de algunas motos de Megamoto. ¿Tienes en mente algún modelo en particular? Si es así, ¿de dónde eres y cómo te gustaría pagar? Esto me ayudará a proporcionarte información más precisa sobre la moto que estás buscando y las opciones de financiación disponibles.
+23/1/2024, 16:32:11 - Oscar: Son agencia oficial d Beneli d donde son
+23/1/2024, 16:32:11 - MegaBot: Megamoto es una agencia oficial que comercializa motos, repuestos, accesorios y bicicletas de la marca Benelli, entre otras marcas【15†fuente】. Megamoto tiene sucursales en Merlo y en la zona del Abasto en CABA. ¿En qué sucursal estás interesado?</t>
+  </si>
+  <si>
+    <t>65b0140bbff5550008cfd351</t>
+  </si>
+  <si>
+    <t>Leonel Amitrano</t>
+  </si>
+  <si>
+    <t>23/1/2024, 16:34:33 - Leonel Amitrano: ¡Hola! Quiero más información.
+23/1/2024, 16:34:33 - MegaBot: ¡Hola Leonel Amitrano! Gracias por enviar la información. Veo que estás interesado en comprar una moto. Para poder ayudarte más rápido, ¿podrías indicarme qué modelo de moto estás buscando y en qué lugar te encuentras? Además, ¿tienes alguna preferencia sobre cómo deseas realizar el pago? Puedes elegir entre pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. ¡Estoy aquí para ayudarte con tu compra en Megamoto!</t>
+  </si>
+  <si>
+    <t>65b014b5fea3ac0008edbb17</t>
+  </si>
+  <si>
+    <t>Mily💋</t>
+  </si>
+  <si>
+    <t>23/1/2024, 17:21:16 - Mily💋: 110
+23/1/2024, 17:21:18 - MegaBot: ¡Hola Mily💋! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra información, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR Mercado Pago, préstamos personales o préstamos prendarios. Además, se ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【11†fuente】.
+En cuanto al modelo MAX 110 A/E, el precio de contado sin patentamiento es de 1,153,950.00. ¿De dónde eres y cómo te gustaría pagar?</t>
+  </si>
+  <si>
+    <t>654c55e809a610000962360d</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:01:14 - Pablo: 5000 de adelanto
+23/1/2024, 18:01:14 - MegaBot: Según la información proporcionada, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, pudiendo hacer una combinación entre estos métodos. Además, se menciona que las distintas formas de pago pueden ser realizadas por otra persona, sin embargo, la moto saldrá a nombre de quien decidan【9†source】.
+A continuación, encontrarás una lista de modelos de motos con sus respectivos precios de contado sin patentamiento. Por favor, indícame cuál es el modelo que estás buscando y de dónde eres para poder brindarte asistencia con tu solicitud de compra.
+23/1/2024, 18:01:40 - Pablo: Es el único modelo que trabajas?
+23/1/2024, 18:01:40 - MegaBot: No, Megamoto tiene varios modelos de motos disponibles. Aquí tienes algunos de los modelos junto con sus precios de contado sin patentamiento:
+- STRATO 150 ALPINO: $2.021.250
+- STRATO 150 EURO: $1.913.100
+- MAX 110 A/E: $1.153.950
+- CG 150 S2 START: $1.151.200
+- CG 150 S2 FULL (aleac / disco): $1.406.275
+- Y muchos otros modelos.
+Por favor, indícame cuál es el modelo de tu interés y tu ubicación para poder proporcionarte más información sobre el modelo específico y los detalles de la compra.
+23/1/2024, 18:04:45 - Pablo: Solo línea Benelli?
+23/1/2024, 18:04:46 - MegaBot: Además de la línea Benelli, Megamoto comercializa motos, repuestos, accesorios y bicicletas de otras marcas como Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro【19†source】. Si estás interesado en algún modelo específico de Benelli o en alguna de estas otras marcas, por favor indícame el modelo de tu interés y tu ubicación para brindarte información detallada y los pasos para la compra.</t>
+  </si>
+  <si>
+    <t>65a92bfe309f7100087ebf0b</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:04:19 - Jose Luis: Hola.  Ya compre. Te agendo por si surge algo nuevo
+23/1/2024, 18:04:19 - MegaBot: Entendido, gracias por contar conmigo. ¡Que disfrutes tu nueva motocicleta! Si en el futuro necesitas ayuda o información adicional, no dudes en contactarme.</t>
+  </si>
+  <si>
+    <t>65abb898ef98e80008dd031f</t>
+  </si>
+  <si>
+    <t>Gabii Gomez</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:04:46 - Gabii Gomez: ¡Hola! Podrías darme más información de...
+23/1/2024, 18:04:46 - MegaBot: ¡Hola Gabii Gomez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b029e4ecfa4000084a3ae4</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:05:23 - Lezcanojavier027: Hola si tengo 27 años tengo pension mi  DNI 39789082 nombre  y apellido Javier Matías lezcano
+23/1/2024, 18:05:23 - MegaBot: ¡Hola Lezcanojavier027! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</t>
+  </si>
+  <si>
+    <t>65a812d59fa77600081b00a1</t>
+  </si>
+  <si>
+    <t>Migue</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:12:08 - Migue: ¡Hola! Podrías darme más información de...a
+23/1/2024, 18:12:08 - MegaBot: ¡Hola Migue! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También te puedo ayudar con los precios de nuestras motos, si necesitas información sobre eso.</t>
+  </si>
+  <si>
+    <t>659b57bc97099600097c5826</t>
+  </si>
+  <si>
+    <t>🦝</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:22:32 - 🦝: 251s bonelli m
+23/1/2024, 18:22:32 - MegaBot: ¡Hola 🦝! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte más rápido, necesito que me indiques tu ubicación, el modelo de moto que estás buscando y tu forma de pago. Además, te comento que las sucursales de Megamoto se encuentran en Merlo, con horario de lunes a sábados de 10 a 19 horas, y en CABA zona Abasto, con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas【9†source】.
+23/1/2024, 18:22:41 - 🦝: Me interesa esa
+23/1/2024, 18:22:42 - MegaBot: Perfecto, veo que estás interesado en la moto "251S". El precio de contado sin patentamiento para la "251S" es de 4844990.31 ARS. ¿Me podrías indicar tu ubicación, modelo de moto y método de pago preferido?</t>
+  </si>
+  <si>
+    <t>65affd4a3b673500097b3294</t>
+  </si>
+  <si>
+    <t>Jonaaa</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:22:49 - Jonaaa: Consultaba por la Suzuki gn 125
+23/1/2024, 18:22:49 - MegaBot: ¡Hola Jonaaa! Gracias por consultar por la Suzuki GN 125. En la lista de precios que tengo disponible, el precio de contado sin patentamiento para la Suzuki GN 125 es de 2061754.39 pesos【9†fuente】. Si deseas información sobre financiación, métodos de pago o disponibilidad de la motocicleta, por favor házmelo saber para que pueda ayudarte de la mejor manera.
+23/1/2024, 18:22:54 - Jonaaa: Que precio tiene
+23/1/2024, 18:22:54 - MegaBot: El precio de contado sin patentar para la Suzuki GN 125 es de 2061754.39 pesos argentinos【8†fuente】.</t>
+  </si>
+  <si>
+    <t>65af1b621a73920008e21427</t>
+  </si>
+  <si>
+    <t>Yohaa!! ⚽❤️</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:22:59 - Yohaa!! ⚽❤️: La Motomel 110
+23/1/2024, 18:22:59 - MegaBot: ¡Hola Yohaa! ⚽❤️! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, ¿podrías indicarme de dónde eres y cómo te gustaría pagar?</t>
+  </si>
+  <si>
+    <t>65afdd561dcc700008f1b80e</t>
+  </si>
+  <si>
+    <t>Walterlescano1993</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:23:13 - Walterlescano1993: Hola qué precio tiene la Benelli 302?
+23/1/2024, 18:23:13 - MegaBot: El precio de la Benelli 302 no se encuentra en el archivo proporcionado. Sin embargo, basándome en la lista de precios, puedo ver que el modelo "SKUA 250 ADVENTURE NUEVO MODELO" tiene un precio al contado sin patentamiento de $3,149,895【15†source】. Te recomendaría consultar directamente con Megamoto para obtener el precio específico de la Benelli 302.</t>
+  </si>
+  <si>
+    <t>65afdeb916f3350008932eab</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:42:18 - Cristian: ¡Hola! Quiero más información.
+23/1/2024, 18:42:18 - MegaBot: ¡Hola Cristian! Gracias por contactar a Megamoto. Según nuestra base de conocimiento, la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas y la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【9†source】.
+En cuanto a la información de las motos que tenemos disponibles, te puedo ofrecer precios de contado sin patentamiento de diferentes modelos. Por ejemplo, la "STRATO 150 ALPINO" tiene un precio de 2.021.250,00, la "STRATO 150 EURO" tiene un precio de 1.913.100,00, entre otros modelos disponibles.
+Por favor, házmelo saber si estás interesado en algún modelo en particular, de dónde eres y cómo te gustaría realizar el pago para que pueda ayudarte de la mejor manera.</t>
+  </si>
+  <si>
+    <t>65b032a8f31ce6000807c7ef</t>
+  </si>
+  <si>
+    <t>Tomás🕸️</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:43:33 - Tomás🕸️: con prestamo personal
+23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.</t>
+  </si>
+  <si>
+    <t>658f1f54c08b9c0008b7fefd</t>
+  </si>
+  <si>
+    <t>Javier Daniel Cortez</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:50:36 - Javier Daniel Cortez: Queria saber las cuotas de deluxe por mes la mas baja cuota
+23/1/2024, 18:50:36 - MegaBot: Lamentablemente, no parece haber información sobre las cuotas mensuales en los archivos que has proporcionado. Para brindarte la información precisa, necesitaría saber la tasa de interés y el plazo en el que estás interesado en pagar las cuotas mensuales. ¿Puedes proporcionar esta información para que pueda calcular las cuotas de la moto DLX 110 DELUXE?</t>
+  </si>
+  <si>
+    <t>65af82b2ff6c3400087152b3</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:58:26 - Cristian: Hola .. si estoy interesado en la trk 502.. cuánto vale y en caso de entrega y financiación. gracias
+23/1/2024, 18:58:26 - MegaBot: ¡Hola Cristian! La moto TRK 502 tiene un precio de contado sin patentamiento de $11,870,100【13†source】. En cuanto a la entrega y financiación, puedes financiar la compra de la moto hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, el anticipo se puede financiar en un 100% si la tarjeta o la entidad prestamista así lo determinan【9†source】. Si estás interesado en proceder con la compra, necesitaré que me indiques desde dónde te estás contactando y qué forma de pago prefieres.</t>
+  </si>
+  <si>
+    <t>65aba885fd82f2000871e208</t>
+  </si>
+  <si>
+    <t>Rodrigo Maximiliano</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:58:49 - Rodrigo Maximiliano: Buen día
+23/1/2024, 18:58:50 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?
+23/1/2024, 18:59:01 - Rodrigo Maximiliano: Binelli
+23/1/2024, 18:59:01 - MegaBot: El precio de la Binelli Leoncino 500 Trail es de $11,078,100 pesos argentinos【11†source】. ¿Te gustaría recibir más información sobre este modelo o algún otro?
+23/1/2024, 18:59:10 - Rodrigo Maximiliano: Algo en 150
+23/1/2024, 18:59:10 - MegaBot: Tenemos varias opciones en la lista de precios que podrían interesarte:
+- Strato 150 Alpino: $2,021,250
+- Strato 150 Euro: $1,913,100
+- CG 150 S2 Start: $1,151,200
+- CG 150 S2 Full (Aleac / Disco): $1,406,275
+- Max 110 A/E: $1,153,950
+- RK 150: $1,810,000
+- Skua 150 New Generation: $1,467,450
+- Skua 150 Silver Edition: $1,966,650
+- Sirius 190: $2,149,500
+- Skua 250 Base New: $2,194,895
+- XMM 250 Nueva: $2,520,000
+- Skua 125 X-Treme: $1,410,759【10†source】.
+¿Te interesa alguno de estos modelos o buscas algo en particular?</t>
+  </si>
+  <si>
+    <t>65aba911ff68a80008df6757</t>
+  </si>
+  <si>
+    <t>Oíd Mortales</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:59:27 - Oíd Mortales: Info sobre la Skua MMX
+23/1/2024, 18:59:27 - MegaBot: Encontré información sobre la Skua MMX en el archivo "V2 - Base de conocimiento de Megamoto.pdf", pero también puedo proporcionarte el precio al contado sin patentamiento de la Skua 150 New Generation, que es de $1,467,450, y el de la Skua 150 Silver Edition, que es de $1,966,650, según el archivo "listaDePrecios_22-1-2024.json". ¿Hay algo más específico que estés buscando sobre la Skua MMX o necesitas ayuda con otro tema?
+23/1/2024, 19:00:00 - Oíd Mortales: Info sobre la Skua 250
+23/1/2024, 19:00:01 - MegaBot: El precio al contado sin patentamiento de la Skua 250 Base New es de $2,194,895 y el de la Skua 250 Adventure Nuevo Modelo es de $3,149,895, según el archivo "listaDePrecios_22-1-2024.json". Si necesitas más información o ayuda con algo más, no dudes en preguntar.
+23/1/2024, 19:00:12 - Oíd Mortales: Y la MMX
+23/1/2024, 19:00:12 - MegaBot: Lamentablemente, no he podido encontrar información específica sobre la Skua MMX en el archivo proporcionado "Base de conocimiento de Megamoto.pdf". ¿En qué más puedo ayudarte?</t>
+  </si>
+  <si>
+    <t>65af5484c42675000a90338e</t>
+  </si>
+  <si>
+    <t>❤️d.f.a❤️</t>
+  </si>
+  <si>
+    <t>23/1/2024, 18:59:33 - ❤️d.f.a❤️: ¡Hola! Quiero más información.
+23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.</t>
+  </si>
+  <si>
+    <t>65b036bbbf038100085eb4f0</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>23/1/2024, 19:01:30 - Orlando: ¡Hola! Me gustaría conseguir más información sobre esto.
+23/1/2024, 19:01:31 - MegaBot: ¡Hola Orlando! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría la siguiente información: 
+1. ¿Qué moto estás buscando?
+2. ¿En qué ubicación te encuentras?
+3. ¿Cómo te gustaría pagar?【9†fuente】
+23/1/2024, 19:02:47 - Orlando: Hola, 30 cuotas de que valor ???
+23/1/2024, 19:02:47 - MegaBot: El precio de contado sin patentamiento para la moto MAX 110 A/E es de $1,153,950【21†fuente】. Las cuotas y su valor dependerán del plan de financiación que elijas. Para obtener más detalles, te recomendaría que te comuniques directamente con Megamoto a través de los números de contacto proporcionados anteriormente.</t>
+  </si>
+  <si>
+    <t>65b0372c5fc18c0008d49964</t>
+  </si>
+  <si>
+    <t>Abrázame Con Toda El Alma</t>
+  </si>
+  <si>
+    <t>23/1/2024, 19:19:35 - Abrázame Con Toda El Alma: G catan
+23/1/2024, 19:19:35 - MegaBot: ¡Hola Abrázame Con Toda El Alma! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo quieres pagar?</t>
+  </si>
+  <si>
+    <t>65af9c2d668e8900089f1193</t>
+  </si>
+  <si>
+    <t>A PARTIR DE ACA PASE AL MODELO 3.5</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,6 +1661,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1310,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1343,6 +1713,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2642,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B48E5D-A0AE-478F-BC78-15FA31E8D76D}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3400,4 +3776,546 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB35FC6-F415-4333-B571-B1B9710952B9}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.75" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="310" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45314.392261643516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45314.396488425926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45314.430262615744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45314.469217083337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45314.513127407408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45314.639345891206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45314.6477121875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45314.654091770833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45314.687901631944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45314.688156041666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45314.690104363428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45314.7225540625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45314.750304166664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45314.752448333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45314.752760416668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45314.753191979165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45314.75787854167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45314.76509666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45314.76529693287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45314.765407141203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45314.765575925929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="217" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45314.778822731481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45314.779697337966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45314.784590798612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45314.790030219905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45314.790300532404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="248" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45314.790735775467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45314.790808101854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45314.792163969905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45314.804716678242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/Historial Leads.xlsx
+++ b/excel/Historial Leads.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA182FD-4906-498F-A381-F27445FF64F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C7C7F-FCBE-42C1-92ED-4A5F52FC8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-1-2024" sheetId="1" r:id="rId1"/>
     <sheet name="22-1-2024" sheetId="2" r:id="rId2"/>
     <sheet name="23-1-2024" sheetId="3" r:id="rId3"/>
+    <sheet name="24-1 al 27-1" sheetId="4" r:id="rId4"/>
+    <sheet name="29-1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="653">
   <si>
     <t>name</t>
   </si>
@@ -1586,6 +1588,1224 @@
   </si>
   <si>
     <t>A PARTIR DE ACA PASE AL MODELO 3.5</t>
+  </si>
+  <si>
+    <t>~cele~</t>
+  </si>
+  <si>
+    <t>23/1/2024, 19:40:42 - ~cele~: Hola buenas tardes 
+Soy de Zárate
+Si
+23/1/2024, 19:40:42 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría que me digas qué tipo de moto estás buscando y cómo te gustaría pagar. También, si tienes alguna preferencia en cuanto a la marca o modelo, ¡no dudes en mencionarlo!</t>
+  </si>
+  <si>
+    <t>65a5a172b6e0300009252fc4</t>
+  </si>
+  <si>
+    <t>Kevin⚽️</t>
+  </si>
+  <si>
+    <t>24/1/2024, 9:08:36 - Kevin⚽️: Suzuki 100?
+24/1/2024, 9:08:36 - MegaBot: Parece que ha habido un problema al intentar acceder a la información sobre la Suzuki 100. Por favor, permíteme un momento para solucionarlo.</t>
+  </si>
+  <si>
+    <t>65ac15350a045e0008ada62f</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>24/1/2024, 9:39:25 - Felix: ¡Hola! Podrías darme más información de...
+24/1/2024, 9:39:25 - MegaBot: ¡Hola Felix! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte con la compra de una moto? Recuerda proporcionar la marca y modelo de la moto que estás buscando, tu ubicación, y tus preferencias de pago, así podré ayudarte de la mejor manera posible.
+24/1/2024, 9:39:34 - Felix: Precio x favor
+24/1/2024, 9:39:34 - MegaBot: Aquí tienes algunos precios de motos disponibles en Megamoto:
+- TNT 15: $2,177,010
+- TRK251 ABS: $5,732,100
+- TRK502 NEW: $11,870,100
+- TRK502-X NEW: $13,454,100
+Si estás interesado en otros modelos, házmelo saber para verificar los precios correspondientes【8†fuente】.</t>
+  </si>
+  <si>
+    <t>655609c325e5a30008794810</t>
+  </si>
+  <si>
+    <t>Shee❤️❤️</t>
+  </si>
+  <si>
+    <t>24/1/2024, 10:25:57 - Shee❤️❤️: Hola.buen dia
+24/1/2024, 10:25:57 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?</t>
+  </si>
+  <si>
+    <t>65b0848abc8ff20008ca107e</t>
+  </si>
+  <si>
+    <t>Victorperez</t>
+  </si>
+  <si>
+    <t>24/1/2024, 10:54:54 - Victorperez: Q esto q mando
+24/1/2024, 10:54:54 - MegaBot: ¡Hola Victorperez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【9†fuente】.</t>
+  </si>
+  <si>
+    <t>65b116986bc33200080a1c29</t>
+  </si>
+  <si>
+    <t>Braian Celso</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:02:18 - Braian Celso: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:02:19 - MegaBot: ¡Hola Braian Celso! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información proporcionada, los métodos de pago disponibles incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos, y la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la opción de que las cuotas sean fijas. Además, para acceder a un crédito, será necesario el número de documento para que un vendedor pueda verificarlo【9†source】.
+También tengo la lista de precios de varios modelos de motos, ¿te interesa conocer el precio de alguno en particular o necesitas más información sobre otro tema?</t>
+  </si>
+  <si>
+    <t>65aff4f789653600085172de</t>
+  </si>
+  <si>
+    <t>Jonathan Franco</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:11:55 - Jonathan Franco: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:11:55 - MegaBot: He encontrado información relevante. Para poder ayudarte mejor, necesito que me indiques qué moto estás buscando, de dónde eres y cómo te gustaría pagar. Además, para que tengas en cuenta, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de distintas marcas como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. Tienen ubicaciones en Merlo y en la zona Abasto de CABA, con horarios de apertura específicos, y diversos números de contactos para comunicarse con ellos【9†source】. También tengo información detallada sobre los modelos de motos que ofrece Megamoto, con sus respectivos precios al contado sin patentamiento. Una vez que me indiques tus preferencias, podré brindarte asesoramiento personalizado.
+24/1/2024, 11:12:11 - Jonathan Franco: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:12:11 - MegaBot: Para brindarte la información que necesitas, por favor indícame el modelo de moto que te interesa, tu ubicación y los detalles de contacto para que pueda ayudarte de manera efectiva. Además, ten en cuenta que Megamoto ofrece diversas marcas de motos, repuestos, accesorios y bicicletas, con servicios de postventa y varias ubicaciones en Argentina, con horarios de apertura específicos y números de contacto disponibles【8†source】.</t>
+  </si>
+  <si>
+    <t>65b11a98c7cf490008682daf</t>
+  </si>
+  <si>
+    <t>Enzo Nahuel</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:39:51 - Enzo Nahuel: ¡Hola! Quiero más información.
+24/1/2024, 11:39:51 - MegaBot: ¡Hola Enzo Nahuel! Soy MegaBot, un Asistente Virtual de Megamoto. Como iniciativa para atenderte más rápido, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo deseas realizar el pago?【11†source】</t>
+  </si>
+  <si>
+    <t>65b1211e9673440009f97824</t>
+  </si>
+  <si>
+    <t>Benjamín Vizcarra</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:47:28 - Benjamín Vizcarra: ¡Hola! Quiero más información.
+24/1/2024, 11:47:28 - MegaBot: ¡Hola Benjamín Vizcarra! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Según la información proporcionada en la base de conocimiento de Megamoto, los métodos de pago disponibles incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos. La financiación puede ser hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, y la moto se puede llevar en el momento y comenzar a pagar en dos meses según el plan de pagos. Para acceder a un crédito es necesario tener al menos 18 años, no tener deudas y contar con algún tipo de ingreso registrado. Respecto al anticipo, se puede financiar la compra en un 100% si la tarjeta o la entidad que presta así lo determinan【13†source】.
+Además, tengo una lista de precios de distintos modelos de motos. ¿Estás interesado en algún modelo en particular o en recibir más información sobre algún aspecto en específico?
+24/1/2024, 11:48:17 - Benjamín Vizcarra: Se puede comprar la motomel skua 150 también en 12 cuotas?
+24/1/2024, 11:48:17 - MegaBot: El precio al contado de la Motomel Skua 150 New Generation es de 1.467.450 pesos argentinos【17†source】. Para conocer las posibles opciones de compra en 12 cuotas, te recomendaría que te pongas en contacto con un vendedor de Megamoto. ¿Te gustaría que te ayude con esa gestión?</t>
+  </si>
+  <si>
+    <t>65b122e5e3dcdc000862c91c</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:49:20 - Esteban: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:49:21 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. Déjame intentarlo de nuevo para revisar la información que necesitas.
+24/1/2024, 16:03:09 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento</t>
+  </si>
+  <si>
+    <t>6057eb13a07256000713b499</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>24/1/2024, 11:52:17 - Hector: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:52:18 - MegaBot: ¡Hola Hector! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de dónde sos, y cómo querés pagar.
+Además, encontré la lista de precios de motos de Megamoto. Aquí tienes algunos modelos con sus precios de contado sin patentamiento:
+- STRATO 150 ALPINO: $2.021.250
+- STRATO 150 EURO: $1.913.100
+- MAX 110 A/E: $1.153.950
+- CG 150 S2 START: $1.151.200
+- CG 150 S2 FULL (aleac / disco): $1.406.275
+- SIRIUS 190 NUEVO PRODUCTO: $2.149.500
+- SKUA 150 NEW GENERATION: $1.467.450
+- SKUA 150 SILVER EDITION: $1.966.650
+- SKUA 250 BASE NEW: $2.194.895
+- XMM 250 NUEVA: $2.520.000
+- SKUA 125 X-TREME: $1.410.759
+- SKUA 250 ADVENTURE NUEVO MODELO: $3.149.895
+- DLX 110 DELUXE: $936.116
+- BLITZ 110 V8 START: $890.540
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW: $1.000.950
+- BLITZ 110 V8 PLUS: $1.151.150
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW: $1.016.650
+- BLITZ 110 V8 TUNNING NEW: $1.127.700
+- CITYCOM 300 i: $5.809.330
+- TNT 15: $2.177.010
+Y muchos modelos más. ¿En qué más puedo ayudarte? 🏍️【11†source】</t>
+  </si>
+  <si>
+    <t>65b1240ddbb8d600086a3ac6</t>
+  </si>
+  <si>
+    <t>Emanuel Salto</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:09:45 - Emanuel Salto: Hola quería saber los precios de motos 150
+24/1/2024, 12:09:45 - MegaBot: ¡Hola Emanuel Salto! Según la lista de precios que tengo disponible, estos son algunos de los precios de motos 150:
+- STRATO 150 ALPINO: $2,021,250.00
+- STRATO 150 EURO: $1,913,100.00
+- CG 150 S2 START: $1,151,200.00
+- CG 150 S2 FULL (aleac / disco): $1,406,275.00
+- SKUA 150 NEW GENERATION: $1,467,450.00
+- SKUA 150 SILVER EDITION: $1,966,650.00
+- SKUA 125 X-TREME: $1,410,759.00
+Si necesitas información sobre algún otro modelo o alguna otra forma de pago, por favor házmelo saber.</t>
+  </si>
+  <si>
+    <t>65b1281ed30d8100082c2353</t>
+  </si>
+  <si>
+    <t>Norma❤</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:20:30 - Norma❤: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:20:31 - MegaBot: ¡Hola Norma❤! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Tengo la información de la lista de precios de algunas motos de Megamoto. ¿Te gustaría que busque algún modelo en particular o que te proporcione más detalles sobre algún producto en específico?</t>
+  </si>
+  <si>
+    <t>65b12aa0c7b58f0008169a5f</t>
+  </si>
+  <si>
+    <t>Ariel Salvatierra</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:21:21 - Ariel Salvatierra: Hola perdón la tardanza yo ando buscando una moto 250
+24/1/2024, 12:21:21 - MegaBot: ¡Hola Ariel Salvatierra! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, ¿podrías indicarme de dónde eres y cómo te gustaría pagar la moto que estás buscando? También puedes visitar el sitio web de Megamoto en https://www.megamoto.com.ar/ o enviar un correo a megamoto@megamoto.com.ar para obtener más información【11†source】.
+24/1/2024, 12:22:49 - Ariel Salvatierra: Y que forma de pagos hay o precios de contado pero valor puesta en calla
+24/1/2024, 12:22:49 - MegaBot: Tenemos varios modelos disponibles, como la "SKUA 250 BASE NEW" por $2,194,895 y la "XMM 250 NUEVA" por $2,520,000 al contado sin patentamiento. Para obtener más detalles y asesoramiento sobre formas de pago, te recomendaría contactar directamente a Megamoto a través de su sitio web, por correo electrónico o por teléfono【9†source】.
+24/1/2024, 16:02:01 - Ariel Salvatierra: ‎4 artículos
+24/1/2024, 16:02:01 - MegaBot: En la lista de precios, se encuentran disponibles los siguientes modelos de motos 250 con precios de contado sin patentamiento:
+- SKUA 250 BASE NEW: $2,194,895
+- XMM 250 NUEVA: $2,520,000【17†source】.
+24/1/2024, 16:02:11 - Ariel Salvatierra: Esas me gustan
+24/1/2024, 16:02:11 - MegaBot: Perfecto, es genial que te gusten esos modelos. ¿Podrías proporcionarme tu domicilio y datos de contacto para seguir con el proceso de compra? Además, ¿tienes alguna preferencia en cuanto al método de pago?
+24/1/2024, 16:03:49 - Vendedor Megamoto: disculpa, como es una app de ventas no me aparece lo que colocaste, me tenes que escribir los modelos</t>
+  </si>
+  <si>
+    <t>65aa8c836af6d90008abce38</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:28:49 - Andrés: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=Mzg2NDA2MzI3
+24/1/2024, 12:28:49 - MegaBot: ¡Hola Andrés! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información proporcionada, la Motomel S2 CG 150 Full tiene un precio de contado sin patentamiento de $1.406.275【15†source】. En cuanto a las opciones de pago, la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas y la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses según el plan de pagos【9†source】.
+Si necesitas más detalles sobre la financiación o cualquier otra consulta, no dudes en preguntar.
+24/1/2024, 12:28:55 - Andrés: Hola
+24/1/2024, 12:28:56 - MegaBot: ¡Hola! ¿En qué más puedo ayudarte hoy?</t>
+  </si>
+  <si>
+    <t>623ca57270c993000a695154</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:32:45 - Andres: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:32:45 - MegaBot: ¡Hola Andres! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de donde sos, y cómo querés pagar.
+Además, te comento que los teléfonos de contacto de Megamoto son:
+- Abasto: 1149730000 y 1167862952
+- Merlo: 1168930000 – 1159790625
+- Post venta y repuestos: 1156202281
+El sitio web de Megamoto es: [Megamoto](https://www.megamoto.com.ar/)
+Respecto a la información de precios de las motos, encontré un archivo que detalla los precios al contado sin patentamiento de varios modelos. ¿Te gustaría que busque información específica sobre algún modelo en particular?
+24/1/2024, 12:32:54 - Andres: Hola tienen Rouser o fz
+24/1/2024, 12:32:54 - MegaBot: Para los modelos Rouser o FZ, no tengo información específica en el archivo de precios. Sin embargo, puedo buscar modelos que contengan parte de esos nombres. ¿Te gustaría que haga esa búsqueda para ver los modelos disponibles que podrían interesarte?</t>
+  </si>
+  <si>
+    <t>65b12d832171f50008cc3269</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:33:56 - Leo: *Porque sabemos de tus necesidades y tus necesidades son nuestra prioridad número 1, queremos q cuentes con nosotros para ayudarte a cuidar el bolsillo*
+...Q cómo lo vamos a hacer????
+*BAJANDO PRECIOS!!... SÍ LEISTE BIEN 🙂 PERO SIEMPRE CONCERBANDO LA CALIDAD A LA QUE TE TENEMOS ACOSTUMBRADO*
+*Buscas Carne🐄 pollo🐔cerdo 🐖  y la mejor atención???...*
+LA ENCONTRASTE!!!
+              *" JUANI "* Es tu mejor opcion  😎😁😄
+DONDE ESTAMOS???
+*En Avenida Ratti 3668 al fondo del supermercado 5 estrellas*⭐⭐⭐⭐⭐
+ ..*QUE CON QUE TE VAS A ENCONTRAR?????*
+            *MIRA*👇
+*Mila de pollo $3500k* 
+     *(2k $6000)*
+*Pata y muslo (3k $5500)*
+*Supremas $4200*
+*Alitas 700*
+*Menudos 300*
+*Salchicha d Viena $7000*
+*Salchicha parrillera $5900*
+*Chorizo $4500*
+*Morcilla $3500*
+*Chorizo colorado $1000c/u*
+*Chinchulin $2500k*
+*Hígado $1700 k*
+*Corazón $2100 k*
+*Riñón $2050 k*
+*Patitas $4500k*
+*Medallones relleno de jamón y queso $4500k*
+*Papas $3400k*
+*Picada 5000 (2kg 6,999)*
+*Bifes ancho5000 (2kg 7,999)*
+*Bife angosto 5000 (2kg 7,999)*
+*Roast beef 5400 (2kg 8,999)*
+*Paleta 5500*
+*Palomita $5500k*
+*Tortuguita $5500k*
+*Carnaza $5000k*
+*Lomo $6500*
+*Bola de lomo $5700 (2KG 9,999)*
+*Cuadrada $5700k(2KG 9,999)*
+ *Nalga $6000*
+*Peceto $6500*
+*Cuadril $6000*
+*Colita de Cuadril $6500*
+*Asado $5700*
+*Tapa de asado $5800(2kg 9,999)*
+*Vacío $6000*
+*Matambre $6500*
+*Entraña 6500*
+*Falda 2700$ (2kg 3,999)*
+*Osobuco 2700$ (2kg 3,999)*
+*Espinazo 1000*
+*Pechito 5500*
+*Carre 5500*
+*Bondiola $7880*
+*Filet de merluza sin espina $5800
+*Ahora bien,No tenes tiempo y no podes acercarte???*
+ TE LO ALCANZAMOS A LA PUERTA DE TU CASA 🏡 Y SIN CARGO!!
+🛵🛵 
+*Y ya sabes*...Tu consulta no molesta📱📞
+Aceptamos tarjetas de crédito y débito! 💳
+Mercado pago 📲
+Tarjeta alimentar 💳
+GRACIAS POR CONFIAR EN NOSOTROS ❤️
+24/1/2024, 12:33:56 - MegaBot: ¡Hola Leo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Además, sé que estás buscando información sobre motos y medios de pago. Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. En cuanto a los métodos de pago, aceptan pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, e incluso se puede hacer una combinación de estos métodos【9†fuente】.
+Si estás interesado en alguna moto en específico o tienes alguna otra consulta, ¡no dudes en decírmelo!</t>
+  </si>
+  <si>
+    <t>60c9f4b62f5e0700084c3633</t>
+  </si>
+  <si>
+    <t>Rama😎</t>
+  </si>
+  <si>
+    <t>24/1/2024, 12:41:51 - Rama😎: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:41:53 - MegaBot: ¡Hola Rama😎! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que he encontrado, Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y también ofrece servicios de postventa. La ubicación de las sucursales y los horarios de atención corresponden a la sucursal en Merlo, sobre avenida Calle Real 51【11†source】.
+Además, he encontrado una lista de precios de diferentes modelos de motos, con los precios al contado sin patentamiento. Si estás interesado en algún modelo en particular, por favor házmelo saber para poder ayudarte de la mejor manera posible.</t>
+  </si>
+  <si>
+    <t>65b12fa56c61f30008493f0c</t>
+  </si>
+  <si>
+    <t>Yamila De Oliveira</t>
+  </si>
+  <si>
+    <t>24/1/2024, 13:40:29 - Yamila De Oliveira: Fz
+24/1/2024, 13:40:29 - MegaBot: ¡Hola Yamila De Oliveira! Según la información proporcionada, Megamoto ofrece una amplia gama de motos, repuestos, accesorios y bicicletas de diversas marcas como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. Además, cuentan con servicios de postventa y varias opciones de pago, incluyendo pago contado, transferencia bancaria, tarjetas de débito y crédito, botón de pago QR, Mercado Pago, préstamos personales o prendarios. La financiación puede ser hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, y la moto se puede llevar en el momento, comenzando a pagar en dos meses según el plan de pagos.
+En cuanto a los precios, tengo a disposición la lista de precios vigente con diversas opciones de modelos y sus precios al contado sin patentamiento. Por ejemplo, el modelo "STRATO 150 ALPINO" tiene un precio de contado sin patentamiento de 2021250.0, mientras que el modelo "LEONCINO 500 TRAIL" tiene un precio de 11078100.0. Si estás interesada en algún modelo en particular o necesitas más detalles sobre opciones de financiación, por favor házmelo saber para ayudarte de la mejor manera posible.</t>
+  </si>
+  <si>
+    <t>65b13aefafbe3200084d1023</t>
+  </si>
+  <si>
+    <t>😁</t>
+  </si>
+  <si>
+    <t>24/1/2024, 13:48:32 - 😁: ¡Hola! Quiero más información.
+24/1/2024, 13:48:32 - MegaBot: La lista de precios proporcionada contiene una amplia gama de modelos de motocicletas, desde diferentes cilindradas hasta bicicletas. ¿Hay algún modelo específico en el que estés interesado o alguna pregunta en particular que quieras hacer sobre algún modelo en particular?</t>
+  </si>
+  <si>
+    <t>65b13f5291985d00056ec248</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>24/1/2024, 13:48:40 - Felipe: ¡Hola! Podrías darme más información de...
+24/1/2024, 13:48:40 - MegaBot: Basado en la información proporcionada, Megamoto ofrece una amplia gama de motocicletas de varias marcas, así como repuestos, accesorios y bicicletas. Además, cuentan con servicios de postventa en varias ubicaciones con diferentes horarios de atención. Los métodos de pago aceptados incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, QR de Mercado Pago, préstamos personales o prendarios, y se puede combinar varios de estos métodos. La financiación está disponible hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de empezar a pagar en dos meses según el plan de pagos. La empresa puede otorgar crédito siempre y cuando el cliente cumpla con ciertos requisitos.
+En cuanto a los precios, se dispone de una lista de precios con el precio de contado sin patentamiento para una variedad de modelos de motocicletas y bicicletas ofrecidos por Megamoto. Por cuestiones de la normativa interna de la empresa, no se pueden enviar listas de precios completas con todos los productos, por lo que se debe proporcionar la consulta a un vendedor si el cliente solicita información detallada sobre más de 3 productos o modelos.
+Dado que has subido un archivo de lista de precios, ¿hay algún modelo en particular en el que te interese obtener más detalles o cotización?</t>
+  </si>
+  <si>
+    <t>65b13f5479cecc00072b27c7</t>
+  </si>
+  <si>
+    <t>Ricardo Fernández</t>
+  </si>
+  <si>
+    <t>24/1/2024, 13:50:59 - Ricardo Fernández: ¡Hola! Quiero más información.
+24/1/2024, 13:51:00 - MegaBot: Entendido. Voy a revisar los archivos que has subido para encontrar la información que necesitas. Dame un momento para revisarlos.</t>
+  </si>
+  <si>
+    <t>65b13fe7b7557a0008e3be67</t>
+  </si>
+  <si>
+    <t>Spaini Pablo</t>
+  </si>
+  <si>
+    <t>24/1/2024, 13:56:05 - Spaini Pablo: ¡Hola! Me gustaría conseguir más información sobre esto.
+24/1/2024, 13:56:05 - MegaBot: He revisado la información proporcionada. Parece que Megamoto comercializa una amplia variedad de motos, incluyendo modelos de marcas como Benelli, Suzuki, Motomel, Keeway, Sym, entre otras. También ofrecen servicios de postventa, repuestos, accesorios y bicicletas.
+Además, encontré una lista de precios que incluye modelos como "STRATO 150 ALPINO", "MAX 110 A/E", "CG 150 S2 START", "SIRIUS 190 NUEVO PRODUCTO", "SKUA 150 NEW GENERATION", "XMM 250 NUEVA", entre otros, con sus respectivos precios de contado sin patentamiento.
+Si estás interesado en algún modelo en particular, por favor házmelo saber para que pueda brindarte más detalles.</t>
+  </si>
+  <si>
+    <t>65b14112d98d7a000855763b</t>
+  </si>
+  <si>
+    <t>24/1/2024, 14:46:08 - Ale: Contitucion
+24/1/2024, 14:46:08 - MegaBot: ¡Hola Ale! Según la lista de precios, veo que hay una gran variedad de modelos de motos disponibles. Si tienes en mente algún modelo en particular, por favor házmelo saber para así ofrecerte información más detallada sobre el precio y las opciones de pago.
+24/1/2024, 14:46:17 - Ale: Dle dle
+24/1/2024, 14:46:17 - MegaBot: Disculpa, ¿podrías proporcionar más detalles sobre tu consulta? ¿Estás interesado en algún modelo específico de moto de Megamoto?</t>
+  </si>
+  <si>
+    <t>65a97dc5eff7f100081c261d</t>
+  </si>
+  <si>
+    <t>24/1/2024, 14:55:32 - Gustavo: ¡Hola! Me gustaría conseguir más información sobre esto.
+24/1/2024, 14:55:32 - MegaBot: Según la información proporcionada, la financiación para la compra de motos puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas, y se puede comenzar a pagar en dos meses según el plan de pagos. Para acceder al crédito, generalmente se requiere tener al menos 18 años, no tener deudas y contar con algún tipo de ingreso registrado. El valor de la cuota dependerá del tipo de préstamo (cuotas con tarjeta de crédito o préstamo personal prendario)【9†source】.
+Además, se cuenta con una lista de precios que incluye el precio de contado sin patentamiento de una variedad de modelos de motos y bicicletas.
+¿En qué más puedo ayudarte?</t>
+  </si>
+  <si>
+    <t>65b14f00fc356200082b1ea0</t>
+  </si>
+  <si>
+    <t>Vane😊</t>
+  </si>
+  <si>
+    <t>24/1/2024, 15:03:51 - Vane😊: Hola Johana de mariano Acosta
+24/1/2024, 15:03:51 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy, Johana?</t>
+  </si>
+  <si>
+    <t>65a9881a28c702000833abd1</t>
+  </si>
+  <si>
+    <t>Nahuel</t>
+  </si>
+  <si>
+    <t>24/1/2024, 15:04:10 - Nahuel: ¡Hola! Podrías darme más información de...
+24/1/2024, 15:04:10 - MegaBot: Se han proporcionado los precios de varias motocicletas en formato JSON. También se ha subido el documento "Base de conocimiento de Megamoto". Permíteme revisar el contenido de este último para obtener más información sobre las motocicletas disponibles y otros detalles relevantes.</t>
+  </si>
+  <si>
+    <t>65b150f386d7400008f908a2</t>
+  </si>
+  <si>
+    <t>24/1/2024, 16:05:28 - Marcelo: Dolavon Chubut (9107
+24/1/2024, 16:05:29 - MegaBot: ¡Hola Marcelo! Según la base de conocimientos de Megamoto, la empresa comercializa motos, repuestos, accesorios y bicicletas de varias marcas, incluyendo Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. Las ubicaciones y horarios de apertura de las sucursales son en Merlo de lunes a sábado de 10 a 19 horas, y en CABA zona Abasto de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. Los teléfonos de contacto son 1149730000 y 1167862952 para la sucursal en Abasto, y 1168930000 – 1159790625 para la sucursal en Merlo. Para postventa y repuestos, el teléfono de contacto es 1156202281. El sitio web de Megamoto es [este](https://www.megamoto.com.ar/), y el correo electrónico es megamoto@megamoto.com.ar【9†fuente】.
+Además, se proporcionó una lista de precios con diferentes modelos de motos y sus precios al contado sin patentamiento. ¿Hay algún modelo en particular que estés interesado en comprar? También necesitaría saber si tienes alguna preferencia en cuanto a la forma de pago.</t>
+  </si>
+  <si>
+    <t>65a9a1cb4f6ad1000b9fdd53</t>
+  </si>
+  <si>
+    <t>𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡</t>
+  </si>
+  <si>
+    <t>24/1/2024, 18:13:47 - 𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡: ¡Hola! Podrías darme más información de...
+24/1/2024, 18:13:47 - MegaBot: ¡Hola 𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡! Según la información proporcionada, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y ofrece servicios de postventa. Tienen sucursales en Merlo y CABA, y aceptan diversos métodos de pago, incluyendo pagos en cuotas y financiación. El sitio web de Megamoto es https://www.megamoto.com.ar, y su correo electrónico es megamoto@megamoto.com.ar【9†source】.
+Además, tengo información sobre los precios de algunas motos de Megamoto. Por ejemplo, el precio de contado sin patentamiento de la moto "STRATO 150 ALPINO" es de 2021250.0, y el de la "TNT 15" es de 2177010.0, entre otros modelos【10†source】.
+Para poder asistirte de la mejor manera, ¿podrías proporcionarme más detalles sobre la moto que estás buscando, tu ubicación y tus preferencias de pago?</t>
+  </si>
+  <si>
+    <t>65b17d7386043b0008a4a052</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>24/1/2024, 18:17:44 - Carmen: ¡Hola! Quiero más información.
+24/1/2024, 18:17:44 - MegaBot: Gracias por la información. Aquí tienes lo que encontré:
+1. Megamoto comercializa motos, repuestos, accesorios y bicicletas de diferentes marcas, como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa【9†source】.
+2. En cuanto a los métodos de pago, Megamoto acepta pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales y préstamos prendarios. Además, ofrecen financiación de hasta 60 cuotas para préstamos prendarios y 30 cuotas para préstamos personales. La moto se puede llevar en el momento y se comienza a pagar en dos meses según el plan de pagos elegido por el cliente【9†source】.
+3. En relación con la información de precios, se menciona que al consultar por el precio de alguna moto a Megamoto se debe hacer referencia al archivo de Lista de Precios último vigente, el cual contiene el precio de contado sin patentar, el precio con patentamiento en provincia de Buenos Aires y el precio con patentamiento en Capital Federal (también conocido como CABA). Por normas de Megamoto, no se pueden enviar listas de precios completas con todos los productos, y en caso de que el cliente consulte por más de 3 productos o modelos, se debe indicar al cliente que la consulta será pasada a un vendedor【9†source】.
+Basado en esta información, ¿qué moto estás buscando, de dónde eres y cómo te gustaría pagar?</t>
+  </si>
+  <si>
+    <t>65b17e4ba0e6ce000884d4e3</t>
+  </si>
+  <si>
+    <t>Luna Soledad</t>
+  </si>
+  <si>
+    <t>24/1/2024, 19:44:36 - Luna Soledad: Ok y las 110 motomel kuanto sale
+24/1/2024, 19:44:36 - MegaBot: ¡Hola Luna Soledad! Soy MegaBot, un Asistente Virtual de Megamoto. Para brindarte un mejor servicio, por favor indícame qué moto estás buscando, tu ubicación y tu método de pago preferido.</t>
+  </si>
+  <si>
+    <t>64d426b01b26aa000977498b</t>
+  </si>
+  <si>
+    <t>24/1/2024, 19:48:40 - Gabriel: ¡Hola! Podrías darme más información de...
+24/1/2024, 19:48:40 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando, de dónde eres y cómo quieres pagar?</t>
+  </si>
+  <si>
+    <t>65b193ba648eb1000801f483</t>
+  </si>
+  <si>
+    <t>24/1/2024, 20:03:59 - Cristian: ¡Hola! Quiero más información.
+24/1/2024, 20:04:00 - MegaBot: ¡Hola Cristian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder asistirte mejor, por favor indícame qué modelo de moto estás buscando, tu ubicación y tu método de pago preferido.</t>
+  </si>
+  <si>
+    <t>65b1975552e88000084495fb</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>24/1/2024, 20:25:48 - Damian: ¡Hola! Quiero más información.
+24/1/2024, 20:25:49 - MegaBot: ¡Hola Damián! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.</t>
+  </si>
+  <si>
+    <t>65b19c73ecb1f30008953475</t>
+  </si>
+  <si>
+    <t>Armandoquintana</t>
+  </si>
+  <si>
+    <t>24/1/2024, 21:08:05 - Armandoquintana: ¡Hola! Podrías darme más información de...
+24/1/2024, 21:08:05 - MegaBot: ¡Hola Armandoquintana! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para agilizar tu atención, ¿qué modelo de moto buscas, tu ubicación y tu método de pago preferido?</t>
+  </si>
+  <si>
+    <t>65b1a65b473f7f000875183c</t>
+  </si>
+  <si>
+    <t>Yeiroby Morales</t>
+  </si>
+  <si>
+    <t>25/1/2024, 10:05:22 - Yeiroby Morales: Zenvia
+25/1/2024, 10:05:26 - MegaBot: ¡Hola Yeiroby Morales! Soy MegaBot, un Asistente Virtual de Megamoto. Mi objetivo es ayudarte con información sobre nuestras motos. Por favor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.
+25/1/2024, 10:07:12 - Vendedor Megamoto: prueba API
+25/1/2024, 10:18:23 - Vendedor Megamoto: prueba API segundo mensaje</t>
+  </si>
+  <si>
+    <t>65b25c6a0ee61e0008e40557</t>
+  </si>
+  <si>
+    <t>Rodrii Juárez</t>
+  </si>
+  <si>
+    <t>25/1/2024, 11:41:05 - Rodrii Juárez: Hola buenas quería saber sobre la skua
+25/1/2024, 11:41:05 - MegaBot: ¡Hola Rodrii Juárez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar【11†source】.
+25/1/2024, 11:59:36 - Rodrii Juárez: Queria saber si me daban con mí dni
+25/1/2024, 11:59:36 - MegaBot: Lo siento, pero no tengo acceso a información personal como el DNI. Mi función es brindar asistencia en la búsqueda de motos, repuestos, accesorios y bicicletas de Megamoto. Si tienes consultas sobre productos específicos, estaré encantado de ayudarte.
+25/1/2024, 11:59:42 - Rodrii Juárez: Rodrigo Juárez 45987365
+25/1/2024, 11:59:43 - MegaBot: He encontrado los precios de las motos que podrían interesarte. ¿Tienes alguna preferencia de modelo para que pueda proporcionarte información detallada sobre esa moto?【0†source】
+25/1/2024, 16:46:40 - Rodrii Juárez: 29302591
+25/1/2024, 16:46:40 - MegaBot: Encontré varias opciones de motos que podrían interesarte:
+1. LEONCINO 500 (todas AM2022) - Precio de contado sin patentamiento: $9,511,500.00
+2. KEEWAY K-LIGHT 202 - Precio de contado sin patentamiento: $2,762,100.00
+3. IMPERIALE 400 - Precio de contado sin patentamiento: $6,633,000.00
+4. SKUA 250 ADVENTURE NUEVO MODELO - Precio de contado sin patentamiento: $3,149,895.00
+5. TRK251 ABS - Precio de contado sin patentamiento: $5,732,100.00
+¿Te gustaría recibir más información sobre alguna de estas opciones o hay algún otro modelo que te interese? Además, ¿podrías proporcionarme tu ubicación, datos de contacto y tu método de pago preferido?
+25/1/2024, 16:47:58 - Rodrii Juárez: Y con ese?
+25/1/2024, 16:47:59 - MegaBot: Ludmila, para continuar con el proceso de compra, necesitaría que proporciones tu ubicación, datos de contacto (por ejemplo, WhatsApp, número de teléfono o correo electrónico), y tu método de pago preferido. Con esa información podré ayudarte a concretar la compra del modelo que elijas.</t>
+  </si>
+  <si>
+    <t>65787dde6f922700080c9ae6</t>
+  </si>
+  <si>
+    <t>Patry</t>
+  </si>
+  <si>
+    <t>25/1/2024, 11:56:51 - Patry: ¡Hola! Quiero más información.
+25/1/2024, 11:56:52 - MegaBot: ¡Hola Patry! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【11†source】.</t>
+  </si>
+  <si>
+    <t>65b2769f02da990008756b1f</t>
+  </si>
+  <si>
+    <t>Manuel Perez</t>
+  </si>
+  <si>
+    <t>25/1/2024, 12:03:13 - Manuel Perez: ¡Hola! Podrías darme más información de...
+25/1/2024, 12:03:13 - MegaBot: ¡Hola Manuel Perez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】.</t>
+  </si>
+  <si>
+    <t>65b2781a6e6bfe0008aedb16</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>25/1/2024, 12:10:48 - Gaston: ¡Hola! Quiero más información.
+25/1/2024, 12:10:49 - MegaBot: ¡Hola Gaston! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【11†source】.</t>
+  </si>
+  <si>
+    <t>65b279e7db69cf000854cae6</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>25/1/2024, 12:20:58 - Karen: ¡Hola! Quiero más información.
+25/1/2024, 12:20:59 - MegaBot: ¡Hola Karen! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar.
+También te comento que Megamoto ofrece servicios de postventa【11†source】.
+Dame un momento para revisar la lista de precios y así poder atenderte mejor.</t>
+  </si>
+  <si>
+    <t>65b27c3eb858410008297388</t>
+  </si>
+  <si>
+    <t>Isabel Sanchez</t>
+  </si>
+  <si>
+    <t>25/1/2024, 12:25:06 - Isabel Sanchez: ¡Hola! Quiero más información.
+25/1/2024, 12:25:06 - MegaBot: ¡Hola Isabel Sanchez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesitaré que me digas qué moto estás buscando, de dónde eres y cómo deseas pagar.
+También quiero informarte de que Megamoto ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Las cuotas son fijas, y la moto se puede llevar en el momento, comenzando a pagar en dos meses según el plan de pagos. Para verificar si te otorgan crédito, será necesario tu número de documento para que un vendedor pueda verificarlo【9†fuente】.
+Mientras espero tu respuesta, te puedo proporcionar información sobre los modelos de motos y sus precios al contado sin patentamiento que hemos recibido.</t>
+  </si>
+  <si>
+    <t>65b27d3c85424b0008a80b8c</t>
+  </si>
+  <si>
+    <t>Molinas Mauro⚡</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:30:47 - Molinas Mauro⚡: Aah dale dale
+25/1/2024, 16:30:47 - MegaBot: ¡Hola Molinas Mauro⚡! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 16:31:31 - Molinas Mauro⚡: 38936698
+25/1/2024, 16:31:32 - MegaBot: Gracias por tu mensaje. ¿Podrías proporcionar el modelo de moto que estás buscando, tu ubicación, método de contacto y método de pago preferido?
+25/1/2024, 16:31:41 - Molinas Mauro⚡: Tiago González
+25/1/2024, 16:31:42 - MegaBot: No encontré un modelo de moto específico llamado "Tiago González" en la lista de precios. ¿Podrías proporcionar el nombre de un modelo de moto que te interese, tu ubicación, método de contacto y método de pago preferido? Esto me ayudará a brindarte la información que necesitas.
+25/1/2024, 16:40:14 - Vendedor Megamoto: con ese me sale lo mismo 
+25/1/2024, 16:40:26 - Vendedor Megamoto: por el momento no le dan credito</t>
+  </si>
+  <si>
+    <t>65a9df5be8fd9b000883198e</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:31:10 - Gustavo Gomez Villafañe: vuelvo a probar primer saludo
+25/1/2024, 16:31:10 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 18:46:57 - Gustavo Gomez Villafañe: done tienen sucursales?
+25/1/2024, 18:46:58 - MegaBot: Megamoto tiene dos sucursales: una en Merlo, ubicada en avenida Calle Real 51 (ex. Gobernador Vergara), abierta de lunes a sábados de 10 a 19 horas; y otra en CABA, sobre la avenida Corrientes 3400【10†source】.
+25/1/2024, 18:47:49 - Gustavo Gomez Villafañe: me decis el precio de la max 110?
+25/1/2024, 18:47:49 - MegaBot: El precio de la moto MAX 110 A/E es de $1.153.950 para pago al contado sin patentamiento【0†source】.
+26/1/2024, 15:36:44 - Gustavo Gomez Villafañe: hola
+26/1/2024, 15:36:44 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
+26/1/2024, 19:28:02 - Gustavo Gomez Villafañe: megabot off
+26/1/2024, 19:28:02 - MegaBot: Entendido. No dudes en volver si necesitas algo más. ¡Hasta luego!
+27/1/2024, 6:53:03 - Gustavo Gomez Villafañe: megabot off
+27/1/2024, 6:53:04 - MegaBot: Hasta luego! Si necesitas ayuda en el futuro, no dudes en contactarme. ¡Adiós!</t>
+  </si>
+  <si>
+    <t>Mitaysamuel345@gmail.com</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:41:02 - Mitaysamuel345@gmail.com: ¡Hola! Podrías darme más información de...me interesa una moto la ZB 110
+25/1/2024, 16:41:02 - MegaBot: ¡Hola Mitaysamuel345@gmail.com! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2b949a7c9830009c5a11d</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:45:59 - Marina: Que requisitos necesito? Tengo recibo de sueldo
+25/1/2024, 16:45:59 - MegaBot: ¡Hola Marina! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2b3f868c0b400085b1b87</t>
+  </si>
+  <si>
+    <t>Alexandra Flores</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:50:09 - Alexandra Flores: ¡Hola! Quiero más información.
+25/1/2024, 16:50:10 - MegaBot: ¡Hola Alexandra Flores! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2bb6e65d22b000824dd8c</t>
+  </si>
+  <si>
+    <t>Maria Isabel</t>
+  </si>
+  <si>
+    <t>25/1/2024, 16:57:25 - Maria Isabel: ¡Hola! Podrías darme más información de...
+25/1/2024, 16:57:26 - MegaBot: ¡Hola Maria Isabel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2bd1fad1123000885b08a</t>
+  </si>
+  <si>
+    <t>Djkevin Dk 🎼</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:00:18 - Djkevin Dk 🎼: ¡Hola! Podrías darme más información de...
+25/1/2024, 17:00:18 - MegaBot: ¡Hola Djkevin Dk 🎼! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b1dafe847ca70008c68131</t>
+  </si>
+  <si>
+    <t>Sebas</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:01:57 - Sebas: Buenas tardes
+25/1/2024, 17:01:57 - MegaBot: ¡Hola Sebas! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 17:02:14 - Sebas: Estoy interesado en las benellis
+25/1/2024, 17:02:14 - MegaBot: Los modelos de Benelli disponibles son: "TNT 15" a $2,177,010, "TRK251 ABS" a $5,732,100, "TRK502 NEW" a $11,870,100, y "TRK502-X NEW" a $13,454,100. ¿Cuál es tu domicilio, número de contacto, y ¿cómo prefieres pagar?
+25/1/2024, 17:02:25 - Sebas: Que productos dispones
+25/1/2024, 17:02:25 - MegaBot: Los modelos disponibles son: "TNT 15" a $2,177,010, "TRK251 ABS" a $5,732,100, "TRK502 NEW" a $11,870,100, "TRK502-X NEW" a $13,454,100, "STRATO 150 EURO" a $1,913,100, y "MAX 110 A/E" a $1,153,950【14†source】. ¿Cuál es tu domicilio, número de contacto, y ¿cómo prefieres pagar?
+25/1/2024, 17:02:30 - Sebas: Y con que financiación x favoe
+25/1/2024, 17:02:30 - MegaBot: Para información detallada sobre financiación, por favor comunícate con nuestro equipo de ventas al siguiente número: +54 9 11 1234 5678.
+25/1/2024, 17:04:56 - Sebas: Cómo estás johanna
+25/1/2024, 17:04:57 - MegaBot: ¡Hola! Soy MegaBot, el Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy relacionado con Megamoto?</t>
+  </si>
+  <si>
+    <t>65ad4e8df6528a00080e8972</t>
+  </si>
+  <si>
+    <t>😋</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:03:09 - 😋: ¡Hola! Quiero más información.
+25/1/2024, 17:03:09 - MegaBot: ¡Hola 😋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 17:03:51 - 😋: De dónde son.???
+25/1/2024, 17:03:51 - MegaBot: Las sucursales de Megamoto se encuentran en Merlo, en la avenida Calle Real 51 (ex. Gobernador Vergara), con horario de lunes a sábados de 10 a 19 horas, y en CABA, zona Abasto, en la avenida Corrientes 3400, con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas【10†source】.</t>
+  </si>
+  <si>
+    <t>65b2be7a192a7a0009c0c419</t>
+  </si>
+  <si>
+    <t>Anahi</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:04:44 - Anahi: ¡Hola! Quiero más información.
+25/1/2024, 17:04:45 - MegaBot: ¡Hola Anahi! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2be254d398300081ff2ab</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:10:03 - ..: ¡Hola! Quiero más información.
+25/1/2024, 17:10:03 - MegaBot: ¡Hola ..! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2c018155c940008f13f1c</t>
+  </si>
+  <si>
+    <t>Perelli Juan</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:13:32 - Perelli Juan: Hola Johann tendrías un catálogo de motos
+25/1/2024, 17:13:32 - MegaBot: ¡Hola Perelli Juan! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>5e46d09d1783360008bf5761</t>
+  </si>
+  <si>
+    <t>Fede Carol 丸</t>
+  </si>
+  <si>
+    <t>25/1/2024, 17:14:36 - Fede Carol 丸: Hola Johana, gracias por tu atención. Necesito saber 752s, Benelli. con esta financiación.
+25/1/2024, 17:14:36 - MegaBot: ¡Hola Fede Carol 丸! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65ad1b3d0f766a0008e4de78</t>
+  </si>
+  <si>
+    <t>Claudio Victor ✌🏼🦁</t>
+  </si>
+  <si>
+    <t>25/1/2024, 18:47:43 - Claudio Victor ✌🏼🦁: ¡Hola! Quiero más información.
+25/1/2024, 18:47:43 - MegaBot: ¡Hola Claudio Victor ✌🏼🦁! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b2d6fcefd18f0007749834</t>
+  </si>
+  <si>
+    <t>Benjaminschafer1968</t>
+  </si>
+  <si>
+    <t>25/1/2024, 19:45:03 - Benjaminschafer1968: Tarjeta de crédito
+25/1/2024, 19:45:04 - MegaBot: ¡Hola Benjaminschafer1968! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b042cdac13430008a9ae1e</t>
+  </si>
+  <si>
+    <t>Sabrina.</t>
+  </si>
+  <si>
+    <t>25/1/2024, 22:10:03 - Sabrina.: Hola, estoy buscando info
+25/1/2024, 22:10:04 - MegaBot: ¡Hola Sabrina.! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b30668e284ba0008a32b26</t>
+  </si>
+  <si>
+    <t>M.c</t>
+  </si>
+  <si>
+    <t>25/1/2024, 22:12:28 - M.c: ¡Hola! Quiero más información.
+25/1/2024, 22:12:29 - MegaBot: ¡Hola M.c! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b306f92d85fb0008864fa5</t>
+  </si>
+  <si>
+    <t>Aleman</t>
+  </si>
+  <si>
+    <t>26/1/2024, 7:49:21 - Aleman: ¡Hola! Podrías darme más información de...
+26/1/2024, 7:49:21 - MegaBot: ¡Hola Aleman! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b38e2c62623800089a81e7</t>
+  </si>
+  <si>
+    <t>Galvan271118</t>
+  </si>
+  <si>
+    <t>26/1/2024, 8:49:48 - Galvan271118: ¡Hola! Me gustaría conseguir más información sobre esto.
+26/1/2024, 8:49:49 - MegaBot: ¡Hola Galvan271118! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b39c58a62fa100086aef8f</t>
+  </si>
+  <si>
+    <t>Pablo Damian</t>
+  </si>
+  <si>
+    <t>26/1/2024, 9:07:42 - Pablo Damian: Ok, precio final con patentamiento?
+26/1/2024, 9:07:43 - MegaBot: ¡Hola Pablo Damian! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>5dbd03629f352a1aeb7e9fff</t>
+  </si>
+  <si>
+    <t>Day🪷</t>
+  </si>
+  <si>
+    <t>26/1/2024, 10:12:40 - Day🪷: Hola ya te paso
+26/1/2024, 10:12:41 - MegaBot: ¡Hola Day🪷! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 10:13:51 - Day🪷: Y te paso otro x las dudas
+26/1/2024, 10:13:51 - MegaBot: Gracias por compartir el archivo. ¿Podrías indicarme el modelo de moto que te interesa, tu ubicación, datos de contacto y tu método de pago preferido para la compra?</t>
+  </si>
+  <si>
+    <t>65943a27602b9000083b5afd</t>
+  </si>
+  <si>
+    <t>Lucas 🧉</t>
+  </si>
+  <si>
+    <t>26/1/2024, 10:21:00 - Lucas 🧉: Hola q presio está la Benelli 250cc y la 302cc
+26/1/2024, 10:21:00 - MegaBot: ¡Hola Lucas 🧉! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 10:21:28 - Lucas 🧉: Y las cuotas de cuánto son por mes
+26/1/2024, 10:21:29 - MegaBot: La Benelli 250cc tiene un precio al contado de $7,211,000, la 302cc de $15,000,000. Las cuotas variarán dependiendo del método de financiación que elijas. Por favor, proporciona tu método de contacto para que un vendedor te pueda brindar más información.</t>
+  </si>
+  <si>
+    <t>65b080acf3fdbc000806ea0f</t>
+  </si>
+  <si>
+    <t>Noelia Sabrina Artaza</t>
+  </si>
+  <si>
+    <t>26/1/2024, 11:54:52 - Noelia Sabrina Artaza: Hola buenos dias
+26/1/2024, 11:54:52 - MegaBot: ¡Hola Noelia Sabrina Artaza! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 11:54:59 - Noelia Sabrina Artaza: Quisiera averiguar
+26/1/2024, 11:54:59 - MegaBot: ¡Hola Noelia Sabrina Artaza! Soy MegaBot, un Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido, por favor indícame qué moto estás buscando, de dónde eres y cómo deseas realizar el pago.</t>
+  </si>
+  <si>
+    <t>65b3c5308ada95000916c396</t>
+  </si>
+  <si>
+    <t>Cin Zelaya</t>
+  </si>
+  <si>
+    <t>26/1/2024, 12:04:13 - Cin Zelaya: ¡Hola! Quiero más información.
+26/1/2024, 12:04:13 - MegaBot: ¡Hola Cin Zelaya! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b3c9e887f57100089349f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/1/2024, 15:36:59 - Pela😜: Hola
+26/1/2024, 15:36:59 - MegaBot: ¡Hola Pela😜! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 15:37:41 - Pela😜: Buenas tardes queria informacion q vi en face q  ay 6 pagos sin interes con tarjeta bancaria
+26/1/2024, 15:37:41 - MegaBot: Lamentablemente, no disponemos de información específica sobre pagos a plazos sin interés con tarjeta bancaria. ¿Te gustaría obtener información sobre algún modelo de moto en particular?
+26/1/2024, 15:38:05 - Pela😜: Queria saber por el serie 2
+26/1/2024, 15:38:05 - MegaBot: El precio de contado sin patentamiento para el modelo LEONCINO 250 es de $5,435,100. Lamentablemente, no disponemos de información sobre pagos a plazos sin interés con tarjeta bancaria. ¿Te puedo ayudar con algo más? 【20†source】
+26/1/2024, 17:55:23 - Vendedor Megamoto: hola , si solo es valido para el dia 31-1 con tarjeta visa o master de santander, serian 6 cuotas de $216.933 por el s2 base </t>
+  </si>
+  <si>
+    <t>6560b81b8a4d0b00088bccfd</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>26/1/2024, 16:13:15 - Sergio: Que vale de contado ?
+26/1/2024, 16:13:15 - MegaBot: ¡Hola Sergio! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b3b71ff72a2a000821130d</t>
+  </si>
+  <si>
+    <t>3624564711</t>
+  </si>
+  <si>
+    <t>26/1/2024, 16:17:29 - 3624564711: ¡Hola! Quiero más información.
+26/1/2024, 16:17:29 - MegaBot: ¡Hola 3624564711! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4054404eef500086f59ca</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>26/1/2024, 16:18:58 - Jorge: ¡Hola! Me gustaría conseguir más información sobre esto.
+26/1/2024, 16:18:58 - MegaBot: ¡Hola Jorge! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4059de388030008178e01</t>
+  </si>
+  <si>
+    <t>💪💪💪</t>
+  </si>
+  <si>
+    <t>26/1/2024, 16:44:42 - 💪💪💪: ¡Hola! Podrías darme más información de...
+26/1/2024, 16:44:42 - MegaBot: ¡Hola 💪💪💪! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b40ba861dcdc00086c9bc0</t>
+  </si>
+  <si>
+    <t>Vanesa💕</t>
+  </si>
+  <si>
+    <t>26/1/2024, 17:04:02 - Vanesa💕: ¡Hola! Quiero más información.
+26/1/2024, 17:04:02 - MegaBot: ¡Hola Vanesa💕! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b41030911f980008e995b3</t>
+  </si>
+  <si>
+    <t>Fernando Carlos García</t>
+  </si>
+  <si>
+    <t>26/1/2024, 17:05:24 - Fernando Carlos García: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:05:25 - MegaBot: ¡Hola Fernando Carlos García! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 17:05:32 - false: Buena tarde
+26/1/2024, 17:05:33 - MegaBot: ¡Hola! Soy MegaBot, ¿En qué modelo de moto estás interesado, en dónde te encuentras y cuál es tu método de pago preferido?</t>
+  </si>
+  <si>
+    <t>65b41082cf663a00084995ed</t>
+  </si>
+  <si>
+    <t>Fe 🫡</t>
+  </si>
+  <si>
+    <t>26/1/2024, 17:25:09 - Fe 🫡: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:25:11 - MegaBot: ¡Hola Fe 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b41523624a4800080d2ccb</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>26/1/2024, 17:35:12 - Javier: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:35:12 - MegaBot: ¡Hola Javier! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4177ecc98ec0008d948cb</t>
+  </si>
+  <si>
+    <t>Luchi🥰</t>
+  </si>
+  <si>
+    <t>26/1/2024, 18:01:32 - Luchi🥰: ¡Hola! Podrías darme más información de...
+26/1/2024, 18:01:32 - MegaBot: ¡Hola Luchi🥰! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b41daa58ee39000814e3a5</t>
+  </si>
+  <si>
+    <t>Victor Alejandro</t>
+  </si>
+  <si>
+    <t>27/1/2024, 7:04:41 - Victor Alejandro: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/1/2024, 7:04:41 - MegaBot: ¡Hola Victor Alejandro! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4d48383c67f0008261942</t>
+  </si>
+  <si>
+    <t>Rodolfo Atilio Ibarra</t>
+  </si>
+  <si>
+    <t>27/1/2024, 8:49:09 - Rodolfo Atilio Ibarra: ¡Hola! Quiero más información.precio de la cuota y requisitos
+27/1/2024, 8:49:09 - MegaBot: ¡Hola Rodolfo Atilio Ibarra! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4edb2c4fce50008fc2968</t>
+  </si>
+  <si>
+    <t>Lucho</t>
+  </si>
+  <si>
+    <t>27/1/2024, 9:28:39 - Lucho: ¡Hola! Quiero más información.
+27/1/2024, 9:28:39 - MegaBot: ¡Hola Lucho! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b4f6f4421edf0008b2a72b</t>
+  </si>
+  <si>
+    <t>Melisa Belén Aragon</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:16:13 - Melisa Belén Aragon: ¡Hola! Podrías darme más información de... La Motomel , cuántos sería las cuotas con tarjeta d crédito banco provincia
+27/1/2024, 11:16:14 - MegaBot: ¡Hola Melisa Belén Aragon! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b5102b50030f0008523c54</t>
+  </si>
+  <si>
+    <t>⚪🔴⚪</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:22:15 - ⚪🔴⚪: Hola buen día financiada
+27/1/2024, 11:22:16 - MegaBot: ¡Hola ⚪🔴⚪! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+27/1/2024, 11:42:01 - Vendedor Megamoto: Te paso los requisitos para el prestamo personal:
+-tener algo en blanco: recibo de sueldo, monotributo, jubilacion, pension.
+-Edad apartir de 21 años
+-no tener deudas,ni estar en veraz
+pasame tu numero de dni  y nombre y apellido y verifico por sistema cuanto te otorgan y en cuantas cuotas 
+y si es de alguien que te sale de garante  tambien dni y nombre-(tiene que cumplir con los requisitos arriba mencionados)</t>
+  </si>
+  <si>
+    <t>65ad67efc6237800089aa409</t>
+  </si>
+  <si>
+    <t>Cristian Bertarini</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:27:08 - Cristian Bertarini: ¡Hola! Quiero más información.de otras cilindrada
+27/1/2024, 11:27:09 - MegaBot: ¡Hola Cristian Bertarini! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b512ba4df1010008640a5a</t>
+  </si>
+  <si>
+    <t>Zulma</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:28:57 - Zulma: ¡Hola! Podrías darme más información por favor
+27/1/2024, 11:28:57 - MegaBot: ¡Hola Zulma! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b51326fa5f4e00085fc80b</t>
+  </si>
+  <si>
+    <t>Acupado</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:37:36 - Acupado: Motomel 150 x treme
+27/1/2024, 11:37:36 - MegaBot: ¡Hola Acupado! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+27/1/2024, 11:39:22 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento
+27/1/2024, 11:41:42 - Acupado: En Laferrere
+27/1/2024, 11:41:43 - MegaBot: ¡Perfecto! Según la base de conocimiento de Megamoto, necesitaré el "archivo de Lista de Precios último vigente" para poder proporcionarte los precios de las motos. Según las instrucciones, este archivo contiene tres precios para cada moto: el precio de contado sin patentar, el precio con patentamiento en provincia de Buenos Aires, y el precio con patentamiento en Capital Federal【11†fuente】. Por favor, indícame qué modelo de moto estás buscando para que pueda consultarlo.</t>
+  </si>
+  <si>
+    <t>65ad3628836c2900094914a6</t>
+  </si>
+  <si>
+    <t>Bore</t>
+  </si>
+  <si>
+    <t>27/1/2024, 11:49:44 - Bore: Hola dale 2975206398
+27/1/2024, 11:49:44 - MegaBot: ¡Hola Bore! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b0578b3a79f80008d4e9ed</t>
+  </si>
+  <si>
+    <t>Taina🦋</t>
+  </si>
+  <si>
+    <t>27/1/2024, 12:08:36 - Taina🦋: ¡Hola! Podrías darme más información de...
+27/1/2024, 12:08:36 - MegaBot: ¡Hola Taina🦋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b51c71c5d6ea0009cda90f</t>
+  </si>
+  <si>
+    <t>Christian😶‍🌫🤑</t>
+  </si>
+  <si>
+    <t>27/1/2024, 12:13:11 - Christian😶‍🌫🤑: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/1/2024, 12:13:11 - MegaBot: ¡Hola Christian😶‍🌫🤑! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b51d84f8f26b00081e97e4</t>
+  </si>
+  <si>
+    <t>27/1/2024, 12:39:36 - Andres: No gracias igual te agradezco
+27/1/2024, 12:39:37 - MegaBot: ¡Hola Andres! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b042afd7ac440008081852</t>
+  </si>
+  <si>
+    <t>Nico😎</t>
+  </si>
+  <si>
+    <t>29/1/2024, 15:39:46 - Nico😎: ¡Hola! Podrías darme más información de...
+29/1/2024, 15:39:46 - MegaBot: ¡Hola Nico😎! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b7f0ee08ece400081af735</t>
+  </si>
+  <si>
+    <t>29/1/2024, 16:08:01 - Gustavo Gomez Villafañe: hola
+29/1/2024, 16:08:02 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>Paoo</t>
+  </si>
+  <si>
+    <t>29/1/2024, 16:16:52 - Paoo: Vi esto en Facebook...
+29/1/2024, 16:16:53 - MegaBot: ¡Hola Paoo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b7f9a1ffe2880008567975</t>
+  </si>
+  <si>
+    <t>😊</t>
+  </si>
+  <si>
+    <t>29/1/2024, 16:50:31 - 😊: ¡Hola! Quiero más información.
+29/1/2024, 16:50:32 - MegaBot: ¡Hola 😊! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b80185e2c4d9000897acde</t>
+  </si>
+  <si>
+    <t>🧠</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:17:43 - 🧠: hola buenas tarde
+29/1/2024, 17:17:43 - MegaBot: ¡Hola 🧠! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+29/1/2024, 17:19:04 - 🧠: marca benelli
+29/1/2024, 17:19:04 - MegaBot: El modelo Benelli LEONCINO 500 TRAIL tiene un precio de contado sin patentamiento de 11,078,100 pesos argentinos. ¿Deseas conocer más detalles sobre este modelo o sobre algún otro? Además, ¿podrías indicarme tu ubicación, método de contacto y preferencia de pago?</t>
+  </si>
+  <si>
+    <t>65aaf28d01316f00089054c7</t>
+  </si>
+  <si>
+    <t>Roberto D Bustos</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:17:54 - Roberto D Bustos: ¡Hola! Podrías darme más información de...
+29/1/2024, 17:17:54 - MegaBot: ¡Hola Roberto D Bustos! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+29/1/2024, 17:18:48 - Roberto D Bustos: Buenas tardes una consulta que planee de pago tiene esta moto
+29/1/2024, 17:18:48 - MegaBot: La moto "Strato 150 Alpino" tiene un precio de contado sin patentamiento de $2,021,250.00. ¿Deseas conocer opciones de financiamiento u otros modelos disponibles?</t>
+  </si>
+  <si>
+    <t>65b807f0420dc50008ffd72f</t>
+  </si>
+  <si>
+    <t>Leandro Rodriguez</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:37:18 - Leandro Rodriguez: ¡Hola! Podrías darme más información de...
+29/1/2024, 17:37:18 - MegaBot: ¡Hola Leandro Rodriguez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+29/1/2024, 17:37:25 - Leandro Rodriguez: ¡Hola! Podrías darme más información de...
+29/1/2024, 17:37:25 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué modelo de moto estás buscando, en qué ubicación te encuentras y cuál es tu método de pago preferido?</t>
+  </si>
+  <si>
+    <t>65b80c7c6db27b0008f9b099</t>
+  </si>
+  <si>
+    <t>Max Max</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:39:35 - Max Max: ¡Hola! Quiero más información.
+29/1/2024, 17:39:35 - MegaBot: ¡Hola Max Max! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b80d054f797e0008df7e4d</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:44:48 - Roberto: ¡Hola! Podrías darme más información de...
+29/1/2024, 17:44:48 - MegaBot: ¡Hola Roberto! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b80e3d056a5a00089319ef</t>
+  </si>
+  <si>
+    <t>29/1/2024, 17:56:17 - Gabriel: ¡Hola! Podrías darme más información de...
+29/1/2024, 17:56:17 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b810ef484e7b0008d64b4b</t>
+  </si>
+  <si>
+    <t>Agustin Dario</t>
+  </si>
+  <si>
+    <t>29/1/2024, 18:09:06 - Agustin Dario: Hola buenas tardes
+29/1/2024, 18:09:06 - MegaBot: ¡Hola Agustin Dario! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+29/1/2024, 18:09:19 - Agustin Dario: Hola buenas tardes
+29/1/2024, 18:09:19 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué modelo de moto estás interesado? Además, necesitaría tu ubicación, datos de contacto y método de pago preferido.
+29/1/2024, 18:09:30 - Agustin Dario: Quería saber el precio de la motomel dlx 110 patentada
+29/1/2024, 18:09:31 - MegaBot: Lamento informarte que no pude acceder a la información sobre el precio de la Motomel DLX 110. ¿Deseas consultar por otro modelo de motocicleta o hay algo más en lo que pueda ayudarte?
+29/1/2024, 18:09:37 - Agustin Dario: Quería saber el precio de la motomel dlx 110 patentada
+29/1/2024, 18:09:37 - MegaBot: El precio de la Motomel DLX 110 patentada es de $936.116 pesos argentinos. ¿En qué ubicación te encuentras? También necesitaré tus datos de contacto y el método de pago que prefieras para continuar con la compra.</t>
+  </si>
+  <si>
+    <t>29/1/2024, 18:10:24 - Jorge: ¡Hola! Quiero más información......que precio la 600..gracias....
+29/1/2024, 18:10:24 - MegaBot: ¡Hola Jorge! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b8143e11ae8b000855530e</t>
+  </si>
+  <si>
+    <t>๑·.★ॐ Gonzalo ॐ★.·๑</t>
+  </si>
+  <si>
+    <t>29/1/2024, 18:38:53 - ๑·.★ॐ Gonzalo ॐ★.·๑: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=NjY4OTE0OTQ=
+29/1/2024, 18:38:53 - MegaBot: ¡Hola ๑·.★ॐ Gonzalo ॐ★.·๑! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b81aebc1056d00089f746a</t>
+  </si>
+  <si>
+    <t>379038</t>
+  </si>
+  <si>
+    <t>29/1/2024, 18:40:48 - 379038: ¡Hola! Podrías darme más información de...
+29/1/2024, 18:40:48 - MegaBot: ¡Hola 379038! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b81b5e3bf695000815dc1e</t>
+  </si>
+  <si>
+    <t>29/1/2024, 18:40:52 - Noelia Sabrina Artaza: Hola buenas tardes
+29/1/2024, 18:40:53 - MegaBot: ¡Hola Noelia Sabrina Artaza! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>Nicolas Baez</t>
+  </si>
+  <si>
+    <t>29/1/2024, 19:01:50 - Nicolas Baez: ¡Hola! Podrías darme más información de...
+29/1/2024, 19:01:50 - MegaBot: ¡Hola Nicolas Baez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</t>
+  </si>
+  <si>
+    <t>65b8204c8ad34a0008b4fb34</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +2900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1712,11 +2932,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3456,13 +4680,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="155" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -3782,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB35FC6-F415-4333-B571-B1B9710952B9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3794,7 +5018,7 @@
     <col min="4" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="310" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -3811,7 +5035,7 @@
         <v>45314.392261643516</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>274</v>
       </c>
@@ -3846,11 +5070,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
@@ -3860,7 +5084,7 @@
       <c r="B5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3870,7 +5094,7 @@
         <v>45314.469217083337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>283</v>
       </c>
@@ -3887,7 +5111,7 @@
         <v>45314.513127407408</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>286</v>
       </c>
@@ -3904,7 +5128,7 @@
         <v>45314.639345891206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="124" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>289</v>
       </c>
@@ -3921,7 +5145,7 @@
         <v>45314.6477121875</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="186" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>292</v>
       </c>
@@ -3938,7 +5162,7 @@
         <v>45314.654091770833</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>295</v>
       </c>
@@ -3955,7 +5179,7 @@
         <v>45314.687901631944</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="217" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>298</v>
       </c>
@@ -3972,7 +5196,7 @@
         <v>45314.688156041666</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>301</v>
       </c>
@@ -3989,7 +5213,7 @@
         <v>45314.690104363428</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>304</v>
       </c>
@@ -4006,7 +5230,7 @@
         <v>45314.7225540625</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="403" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
@@ -4023,7 +5247,7 @@
         <v>45314.750304166664</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>309</v>
       </c>
@@ -4040,7 +5264,7 @@
         <v>45314.752448333333</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>312</v>
       </c>
@@ -4074,7 +5298,7 @@
         <v>45314.753191979165</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>317</v>
       </c>
@@ -4091,7 +5315,7 @@
         <v>45314.75787854167</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="124" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>320</v>
       </c>
@@ -4108,7 +5332,7 @@
         <v>45314.76509666667</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="124" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>323</v>
       </c>
@@ -4125,7 +5349,7 @@
         <v>45314.76529693287</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>326</v>
       </c>
@@ -4142,7 +5366,7 @@
         <v>45314.765407141203</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>329</v>
       </c>
@@ -4159,7 +5383,7 @@
         <v>45314.765575925929</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="217" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -4176,7 +5400,7 @@
         <v>45314.778822731481</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -4193,7 +5417,7 @@
         <v>45314.779697337966</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>337</v>
       </c>
@@ -4210,7 +5434,7 @@
         <v>45314.784590798612</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -4227,7 +5451,7 @@
         <v>45314.790030219905</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="356.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>342</v>
       </c>
@@ -4244,7 +5468,7 @@
         <v>45314.790300532404</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="248" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="186" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
@@ -4261,7 +5485,7 @@
         <v>45314.790735775467</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>348</v>
       </c>
@@ -4278,7 +5502,7 @@
         <v>45314.790808101854</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="155" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>351</v>
       </c>
@@ -4295,7 +5519,7 @@
         <v>45314.792163969905</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>354</v>
       </c>
@@ -4318,4 +5542,1826 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9441449E-30E2-49AF-B1CB-A82EDE777904}">
+  <dimension ref="A1:E89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="93.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="12">
+        <v>45314.819376493055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45315.38042079861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45315.401824537039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45315.434139837962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45315.454240011575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45315.459386111113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45315.466054039352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45315.485459166666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="310" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="12">
+        <v>45315.490741226851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45315.492047233798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="12">
+        <v>45315.494096574075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45315.506224432873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="12">
+        <v>45315.513691574073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45315.514272789354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="12">
+        <v>45315.51945753472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="310" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45315.522189108793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="12">
+        <v>45315.523010428238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45315.528513761572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="217" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45315.569228541666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45315.574823796298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="279" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21" s="12">
+        <v>45315.574913518518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D22" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" s="12">
+        <v>45315.576527210651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="12">
+        <v>45315.580064918984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" s="12">
+        <v>45315.614819953706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="12">
+        <v>45315.621347418979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="12">
+        <v>45315.627126620369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E27" s="12">
+        <v>45315.627343680557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="217" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="12">
+        <v>45315.669918078704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E29" s="12">
+        <v>45315.759018414348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" t="s">
+        <v>444</v>
+      </c>
+      <c r="E30" s="12">
+        <v>45315.761767222219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="12">
+        <v>45315.822092337963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="12">
+        <v>45315.824916956015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" s="12">
+        <v>45315.835553877318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D34" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="12">
+        <v>45315.850705567129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D35" t="s">
+        <v>457</v>
+      </c>
+      <c r="E35" s="12">
+        <v>45315.880063090277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>458</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" t="s">
+        <v>460</v>
+      </c>
+      <c r="E36" s="12">
+        <v>45316.419850648148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D37" t="s">
+        <v>463</v>
+      </c>
+      <c r="E37" s="12">
+        <v>45316.486314594906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>464</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" t="s">
+        <v>466</v>
+      </c>
+      <c r="E38" s="12">
+        <v>45316.497266238424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" s="12">
+        <v>45316.501685474534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" t="s">
+        <v>472</v>
+      </c>
+      <c r="E40" s="12">
+        <v>45316.506954432873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" s="12">
+        <v>45316.51401540509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="12">
+        <v>45316.516876817128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D43" t="s">
+        <v>481</v>
+      </c>
+      <c r="E43" s="12">
+        <v>45316.687497719904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="12">
+        <v>45316.687760555556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>483</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D45" t="s">
+        <v>485</v>
+      </c>
+      <c r="E45" s="12">
+        <v>45316.694609618055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D46" t="s">
+        <v>488</v>
+      </c>
+      <c r="E46" s="12">
+        <v>45316.698045370373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>489</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D47" t="s">
+        <v>491</v>
+      </c>
+      <c r="E47" s="12">
+        <v>45316.70094884259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>492</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" s="12">
+        <v>45316.705990625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" t="s">
+        <v>497</v>
+      </c>
+      <c r="E49" s="12">
+        <v>45316.707986493057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>498</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>500</v>
+      </c>
+      <c r="E50" s="12">
+        <v>45316.709138252314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>501</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>503</v>
+      </c>
+      <c r="E51" s="12">
+        <v>45316.709973622688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>504</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D52" t="s">
+        <v>506</v>
+      </c>
+      <c r="E52" s="12">
+        <v>45316.711076307867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D53" t="s">
+        <v>508</v>
+      </c>
+      <c r="E53" s="12">
+        <v>45316.714762418982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D54" t="s">
+        <v>511</v>
+      </c>
+      <c r="E54" s="12">
+        <v>45316.717182280096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D55" t="s">
+        <v>514</v>
+      </c>
+      <c r="E55" s="12">
+        <v>45316.717925023149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" t="s">
+        <v>517</v>
+      </c>
+      <c r="E56" s="12">
+        <v>45316.782588703703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>518</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D57" t="s">
+        <v>520</v>
+      </c>
+      <c r="E57" s="12">
+        <v>45316.822406932872</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>521</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E58" s="12">
+        <v>45316.92309935185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
+        <v>526</v>
+      </c>
+      <c r="E59" s="12">
+        <v>45316.924774930558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D60" t="s">
+        <v>529</v>
+      </c>
+      <c r="E60" s="12">
+        <v>45317.325383344905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>530</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D61" t="s">
+        <v>532</v>
+      </c>
+      <c r="E61" s="12">
+        <v>45317.367371122687</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>533</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D62" t="s">
+        <v>535</v>
+      </c>
+      <c r="E62" s="12">
+        <v>45317.379796446759</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D63" t="s">
+        <v>538</v>
+      </c>
+      <c r="E63" s="12">
+        <v>45317.424917349534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>539</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D64" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="12">
+        <v>45317.430695856485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>542</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D65" t="s">
+        <v>544</v>
+      </c>
+      <c r="E65" s="12">
+        <v>45317.495882812502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>545</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D66" t="s">
+        <v>547</v>
+      </c>
+      <c r="E66" s="12">
+        <v>45317.502378622688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D67" t="s">
+        <v>549</v>
+      </c>
+      <c r="E67" s="12">
+        <v>45317.65013047454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>550</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D68" t="s">
+        <v>552</v>
+      </c>
+      <c r="E68" s="12">
+        <v>45317.675318090274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>553</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D69" t="s">
+        <v>555</v>
+      </c>
+      <c r="E69" s="12">
+        <v>45317.678259594904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>556</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D70" t="s">
+        <v>558</v>
+      </c>
+      <c r="E70" s="12">
+        <v>45317.67928369213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>559</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D71" t="s">
+        <v>561</v>
+      </c>
+      <c r="E71" s="12">
+        <v>45317.697159594907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>562</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" t="s">
+        <v>564</v>
+      </c>
+      <c r="E72" s="12">
+        <v>45317.710586620371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>565</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D73" t="s">
+        <v>567</v>
+      </c>
+      <c r="E73" s="12">
+        <v>45317.711536631941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>568</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D74" t="s">
+        <v>570</v>
+      </c>
+      <c r="E74" s="12">
+        <v>45317.7252537963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>571</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D75" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" s="12">
+        <v>45317.732229155095</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>574</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="D76" t="s">
+        <v>576</v>
+      </c>
+      <c r="E76" s="12">
+        <v>45317.750513923609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>577</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D77" t="s">
+        <v>579</v>
+      </c>
+      <c r="E77" s="12">
+        <v>45318.294368078707</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>580</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D78" t="s">
+        <v>582</v>
+      </c>
+      <c r="E78" s="12">
+        <v>45318.366916956016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>583</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D79" t="s">
+        <v>585</v>
+      </c>
+      <c r="E79" s="12">
+        <v>45318.394347199071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>586</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D80" t="s">
+        <v>588</v>
+      </c>
+      <c r="E80" s="12">
+        <v>45318.46904916667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="217" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>589</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D81" t="s">
+        <v>591</v>
+      </c>
+      <c r="E81" s="12">
+        <v>45318.473239247687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>592</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D82" t="s">
+        <v>594</v>
+      </c>
+      <c r="E82" s="12">
+        <v>45318.476629305558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D83" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" s="12">
+        <v>45318.477882905092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>598</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D84" t="s">
+        <v>600</v>
+      </c>
+      <c r="E84" s="12">
+        <v>45318.483892881944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>601</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D85" t="s">
+        <v>603</v>
+      </c>
+      <c r="E85" s="12">
+        <v>45318.492317835648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>604</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D86" t="s">
+        <v>606</v>
+      </c>
+      <c r="E86" s="12">
+        <v>45318.505422106478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>607</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D87" t="s">
+        <v>609</v>
+      </c>
+      <c r="E87" s="12">
+        <v>45318.508600925925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>403</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="D88" t="s">
+        <v>611</v>
+      </c>
+      <c r="E88" s="12">
+        <v>45318.526955578702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>612</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D89" t="s">
+        <v>614</v>
+      </c>
+      <c r="E89" s="12">
+        <v>45320.652065567127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEDB26A-51FA-4710-AE2A-42A9FA7B1F41}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="111.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45320.671689444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45320.677834166665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45320.701204571757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45320.720082951389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45320.720214490742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45320.733687569445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45320.735272164355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" s="12">
+        <v>45320.738894907408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45320.746869479168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="12">
+        <v>45320.755767361108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D12" t="s">
+        <v>642</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45320.756674837961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D13" t="s">
+        <v>645</v>
+      </c>
+      <c r="E13" s="12">
+        <v>45320.776453981482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D14" t="s">
+        <v>648</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45320.777781724537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" s="12">
+        <v>45320.777834363427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45320.792392025462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>